--- a/biology/Botanique/Mezoneuron_benthamianum/Mezoneuron_benthamianum.xlsx
+++ b/biology/Botanique/Mezoneuron_benthamianum/Mezoneuron_benthamianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mezoneuron benthamianum est une espèce de plantes de la famille des Fabaceae et du genre Mezoneuron, présente en Afrique tropicale, du Sénégal au Gabon. Elle est utilisée comme plante médicinale[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mezoneuron benthamianum est une espèce de plantes de la famille des Fabaceae et du genre Mezoneuron, présente en Afrique tropicale, du Sénégal au Gabon. Elle est utilisée comme plante médicinale.
 Son épithète spécifique benthamianum rend hommage au botaniste britannique George Bentham.
 </t>
         </is>
